--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/10/seed5/result_data_RandomForest.xlsx
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.870299999999991</v>
+        <v>-8.773599999999989</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -635,13 +635,13 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.604399999999997</v>
+        <v>5.565299999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.068599999999998</v>
+        <v>-7.953999999999997</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.662699999999999</v>
+        <v>-8.693899999999998</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.941799999999995</v>
+        <v>-7.900699999999995</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
